--- a/medicine/Soins infirmiers et profession infirmière/1935_en_santé_et_médecine/1935_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1935_en_santé_et_médecine/1935_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1935_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1935_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1935 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1935_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1935_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>28 janvier : l'Islande est le premier pays occidental à légaliser l'avortement, dans des conditions limitées[1].
-15 février : le bactériologiste allemand Gerhard Domagk démontre l'efficacité du Prontosil, premier médicament antibactérien commercialement exploitable[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>28 janvier : l'Islande est le premier pays occidental à légaliser l'avortement, dans des conditions limitées.
+15 février : le bactériologiste allemand Gerhard Domagk démontre l'efficacité du Prontosil, premier médicament antibactérien commercialement exploitable.
 12 mai : fondation de la première association du mouvement des Alcooliques anonymes, à Akron, dans l'Ohio.
-Août : Ulf von Euler (1905-1983) découvre que le liquide et les vésicules séminaux de nombreux animaux, dont l'Homme, contiennent une substance capable de provoquer des contractions du muscle lisse utérin : la prostaglandine[3].
-6 novembre : dans le laboratoire de chimie thérapeutique dirigé par Ernest Fourneau à l'Institut Pasteur, Jacques et Thérèse Tréfouël, Federico Nitti et Daniel Bovet isolent le sulfanilamide, agent actif du Prontosil de Domagk[4],[5].
-24 décembre : le compositeur autrichien Alban Berg meurt d'une septicémie provoquée par une piqûre d'insecte[6].</t>
+Août : Ulf von Euler (1905-1983) découvre que le liquide et les vésicules séminaux de nombreux animaux, dont l'Homme, contiennent une substance capable de provoquer des contractions du muscle lisse utérin : la prostaglandine.
+6 novembre : dans le laboratoire de chimie thérapeutique dirigé par Ernest Fourneau à l'Institut Pasteur, Jacques et Thérèse Tréfouël, Federico Nitti et Daniel Bovet isolent le sulfanilamide, agent actif du Prontosil de Domagk,.
+24 décembre : le compositeur autrichien Alban Berg meurt d'une septicémie provoquée par une piqûre d'insecte.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1935_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1935_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1er janvier : parution du premier numéro du Bulletin de l'AMLFAN, qui fusionne trois ans plus tard avec L'Union médicale du Canada[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : parution du premier numéro du Bulletin de l'AMLFAN, qui fusionne trois ans plus tard avec L'Union médicale du Canada.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1935_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1935_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Nobel de médecine : Hans Spemann, embryologiste allemand.</t>
         </is>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1935_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1935_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>12 mars : Jacques Benveniste (mort en 2004), médecin et immunologiste français.
 18 mars : Frances Cress Welsing (morte en 2016), psychiatre américaine.
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1935_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1935_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,23 +669,25 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>6 février : Walther Spielmeyer (né en 1879), neurologue et neuropathologiste allemand.
-13 février : Charles Dassonville (né en 1864), médecin vétérinaire, vétérinaire-général inspecteur des armées[8].
+13 février : Charles Dassonville (né en 1864), médecin vétérinaire, vétérinaire-général inspecteur des armées.
 20 février : Sante De Sanctis (né en 1862), neuropsychiatre et pédopsychiatre italien.
 24 février : Valmont Martin (né en 1875), médecin et homme politique québécois, maire de Québec en 1926-1927.
 16 mars : John Macleod (né en 1876), médecin et physiologiste britannique, lauréat du prix Nobel de physiologie ou médecine en 1923.
-26 mars : Shepherd Dawson (né en 1880), pédopsychiatre anglais[9].
+26 mars : Shepherd Dawson (né en 1880), pédopsychiatre anglais.
 29 mars : Edward Sharpey-Schafer (né en 1850), neurologue et physiologiste britannique.
 10 avril : Alfred Goldscheider (né en 1858), neurologue allemand.
-12 avril : Adolphe Zimmern (né en 1871), neurologue français[10].
+12 avril : Adolphe Zimmern (né en 1871), neurologue français.
 14 mai : Magnus Hirschfeld (né en 1868), médecin allemand.
 14 mai : Victor Morax (né en 1866), ophtalmologiste suisse.
-25 juillet : Édouard Fuster (né en 1869), administrateur français, spécialiste d’hygiène publique et de physiologie du travail[11],[12].
+25 juillet : Édouard Fuster (né en 1869), administrateur français, spécialiste d’hygiène publique et de physiologie du travail,.
 30 juillet : Donald E. Baxter (né en 1882), médecin, ingénieur et scientifique américain.
 2 novembre : Themistocles Zammit (né en 1864), médecin, archéologue et historien maltais.
-8 novembre : Albert Mairet (né en 1852), neuropsychiatre français[12].
+8 novembre : Albert Mairet (né en 1852), neuropsychiatre français.
 3 décembre : Charles Richet (né en 1850), physiologiste français, lauréat du prix Nobel de physiologie ou médecine en 1913.</t>
         </is>
       </c>
